--- a/2018.9.24-2018.9.30.xlsx
+++ b/2018.9.24-2018.9.30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>时间段</t>
   </si>
@@ -180,6 +180,9 @@
     <t>起床洗漱</t>
   </si>
   <si>
+    <t>困成猪 昨晚睡不着</t>
+  </si>
+  <si>
     <t>07：30-08：00</t>
   </si>
   <si>
@@ -196,12 +199,18 @@
     <t>08：30-09：00</t>
   </si>
   <si>
+    <t>和狗胜走去实验室，吃早餐</t>
+  </si>
+  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
     <t>更新gtl代码，查看color不同</t>
   </si>
   <si>
+    <t>和王二狗比比</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>10：30-11：00</t>
   </si>
   <si>
+    <t>学习泛型编程 看算法的视频</t>
+  </si>
+  <si>
     <t>11：00-11：30</t>
   </si>
   <si>
@@ -247,6 +259,9 @@
     <t>借书</t>
   </si>
   <si>
+    <t>提交运行geospark，跟老师一起解决geobeam的bug，安排下一步的任务：通过beam实现类似geospark的实验，主要包括三种数据类型的定义，最后对比俩者运行效率</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -274,6 +289,11 @@
     <t>头疼 看视频休息</t>
   </si>
   <si>
+    <t>接下来任务总结：
+1、阅读geospark源码，主要看三种对象的实现，以及如何调用jts
+2、可能需要阅读jts以及beam源码，并按照同样的结构实现</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -292,6 +312,9 @@
     <t>玩游戏</t>
   </si>
   <si>
+    <t>游戏</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -304,6 +327,9 @@
     <t>写nowcoder题目</t>
   </si>
   <si>
+    <t>实现选择排序、插入排序、快速排序、归并排序以及计算同样的数组排序的时间性能。</t>
+  </si>
+  <si>
     <t>20：00-20：30</t>
   </si>
   <si>
@@ -322,10 +348,16 @@
     <t>回去休息</t>
   </si>
   <si>
+    <t>阅读组合数学</t>
+  </si>
+  <si>
     <t>22：00-22：30</t>
   </si>
   <si>
     <t>22：30-23：00</t>
+  </si>
+  <si>
+    <t>回宿舍洗漱</t>
   </si>
   <si>
     <t>骑车回家</t>
@@ -355,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -384,8 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,9 +426,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,8 +447,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,11 +463,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,14 +481,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,53 +540,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,24 +626,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,162 +806,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -819,6 +851,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -830,6 +875,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -840,9 +896,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -852,11 +906,15 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -920,17 +978,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,27 +1008,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,26 +1061,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,152 +1080,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,90 +1238,120 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1271,6 +1359,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1595,13 +1689,15 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="5.00833333333333" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="9" width="20.625" customWidth="1"/>
+    <col min="3" max="9" width="24.625" customWidth="1"/>
+    <col min="10" max="16" width="5.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1630,15 +1726,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1653,10 +1749,10 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1664,810 +1760,824 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:16">
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" ht="52" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="27"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="28"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="D16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="32"/>
+      <c r="J17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="44"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="33"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:16">
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="45"/>
+    </row>
+    <row r="19" ht="52" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="33"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="33"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:16">
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="45"/>
+    </row>
+    <row r="21" ht="87" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="33"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="45"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
+      <c r="D22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="33"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="33"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="33"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="33"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="45"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="D26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="33"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="33"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" ht="37" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="34"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="33"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="45"/>
     </row>
     <row r="29" ht="37" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="33"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="45"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="33"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="1" t="s">
-        <v>62</v>
+      <c r="D32" s="5"/>
+      <c r="E32" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="33"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="33"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="33"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="33"/>
+      <c r="A35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="45"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="33"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="33"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="45"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="34"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2482,6 +2592,16 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.9.24-2018.9.30.xlsx
+++ b/2018.9.24-2018.9.30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>时间段</t>
   </si>
@@ -183,6 +183,12 @@
     <t>困成猪 昨晚睡不着</t>
   </si>
   <si>
+    <t>起床洗漱，吃饭去教二上课</t>
+  </si>
+  <si>
+    <t>昨天睡很晚，起晚了，心情不是很好，吵架</t>
+  </si>
+  <si>
     <t>07：30-08：00</t>
   </si>
   <si>
@@ -190,33 +196,72 @@
 </t>
   </si>
   <si>
+    <t>08：00-08：30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上组合数学的课，主要是学习加法法则以及乘法法则、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排列的三种生成算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这部分需要在下午进行巩固加深以及完成课后作业</t>
+    </r>
+  </si>
+  <si>
+    <t>08：30-09：00</t>
+  </si>
+  <si>
+    <t>和狗胜走去实验室，吃早餐</t>
+  </si>
+  <si>
+    <t>起来洗漱</t>
+  </si>
+  <si>
+    <t>09：00-09：30</t>
+  </si>
+  <si>
+    <t>更新gtl代码，查看color不同</t>
+  </si>
+  <si>
+    <t>和王二狗比比</t>
+  </si>
+  <si>
+    <t>车钥匙坏了，去修了一下</t>
+  </si>
+  <si>
+    <t>09：30-10：00</t>
+  </si>
+  <si>
+    <t>老师布置任务：运行geobeam，geospark、修改texture</t>
+  </si>
+  <si>
     <t>骑车去实验室</t>
   </si>
   <si>
-    <t>08：00-08：30</t>
-  </si>
-  <si>
-    <t>08：30-09：00</t>
-  </si>
-  <si>
-    <t>和狗胜走去实验室，吃早餐</t>
-  </si>
-  <si>
-    <t>09：00-09：30</t>
-  </si>
-  <si>
-    <t>更新gtl代码，查看color不同</t>
-  </si>
-  <si>
-    <t>和王二狗比比</t>
-  </si>
-  <si>
-    <t>09：30-10：00</t>
-  </si>
-  <si>
-    <t>老师布置任务：运行geobeam，geospark、修改texture</t>
-  </si>
-  <si>
     <t>10：00-10：30</t>
   </si>
   <si>
@@ -238,6 +283,9 @@
     <t>午饭</t>
   </si>
   <si>
+    <t>外卖吃午饭</t>
+  </si>
+  <si>
     <t>中午</t>
   </si>
   <si>
@@ -250,6 +298,9 @@
     <t>12：30-13：00</t>
   </si>
   <si>
+    <t>玩手机看视频</t>
+  </si>
+  <si>
     <t>13：00-14：00</t>
   </si>
   <si>
@@ -262,6 +313,9 @@
     <t>提交运行geospark，跟老师一起解决geobeam的bug，安排下一步的任务：通过beam实现类似geospark的实验，主要包括三种数据类型的定义，最后对比俩者运行效率</t>
   </si>
   <si>
+    <t>起来去实验室路上</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -269,6 +323,9 @@
   </si>
   <si>
     <t>调试程序，flink集群运行有问题，重新尝试运行example</t>
+  </si>
+  <si>
+    <t>复习上午组合数学的内容，自己做课本上的例题，主要是排列组合的一些知识</t>
   </si>
   <si>
     <t>15：00-15：30</t>
@@ -294,6 +351,9 @@
 2、可能需要阅读jts以及beam源码，并按照同样的结构实现</t>
   </si>
   <si>
+    <t>学习linux第六章，主要学习ls -l显示的信息说明，包括文件的权限以及拥有者，以及如何修改文件的拥有者、组、以及权限等</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -321,6 +381,9 @@
     <t>19：00-19：30</t>
   </si>
   <si>
+    <t>写排序算法，将之前的优化了一些，实现最新的排序算法，对比各种算法的时间性能</t>
+  </si>
+  <si>
     <t>19：30-20：00</t>
   </si>
   <si>
@@ -342,6 +405,9 @@
     <t>21：00-21：30</t>
   </si>
   <si>
+    <t>做了leetcode题</t>
+  </si>
+  <si>
     <t>21：30-22：00</t>
   </si>
   <si>
@@ -354,13 +420,16 @@
     <t>22：00-22：30</t>
   </si>
   <si>
+    <t>骑车回家</t>
+  </si>
+  <si>
     <t>22：30-23：00</t>
   </si>
   <si>
     <t>回宿舍洗漱</t>
   </si>
   <si>
-    <t>骑车回家</t>
+    <t>很烦</t>
   </si>
   <si>
     <t>23：00-23：30</t>
@@ -387,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -410,7 +479,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,7 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +532,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -455,47 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -511,21 +571,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,8 +585,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,43 +695,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,144 +827,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -912,6 +981,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -951,29 +1029,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,24 +1058,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1022,30 +1078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1057,6 +1089,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,157 +1116,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,43 +1348,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,6 +1384,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1346,25 +1411,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1689,7 +1754,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1726,15 +1791,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1753,758 +1818,778 @@
         <v>13</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" ht="52" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="44"/>
+      <c r="J17" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="47"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="45"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="48"/>
     </row>
     <row r="19" ht="52" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="45"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="48"/>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="45"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="45"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="48"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="45"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="48"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="45"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="37"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="45"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="48"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="45"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="48"/>
     </row>
     <row r="28" ht="37" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="45"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="48"/>
     </row>
     <row r="29" ht="37" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="45"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="48"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="45"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="48"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="45"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="48"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>72</v>
+      <c r="E32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>85</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="45"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="1" t="s">
-        <v>74</v>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="45"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="48"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="13" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="45"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="48"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2514,13 +2599,13 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="45"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="48"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="20"/>
@@ -2532,13 +2617,13 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="45"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="48"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="20"/>
@@ -2550,13 +2635,13 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="45"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="48"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="20"/>
@@ -2568,16 +2653,16 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="46"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="36">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2602,6 +2687,15 @@
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.9.24-2018.9.30.xlsx
+++ b/2018.9.24-2018.9.30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>时间段</t>
   </si>
@@ -268,6 +268,9 @@
     <t>通过Spark提交运行geobeam，出错 通过远程桌面查看log，未解决</t>
   </si>
   <si>
+    <t>解决吵架的问题</t>
+  </si>
+  <si>
     <t>10：30-11：00</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>11：00-11：30</t>
   </si>
   <si>
+    <t>给师弟解决bug</t>
+  </si>
+  <si>
     <t>11：30-12：00</t>
   </si>
   <si>
@@ -295,15 +301,24 @@
     <t>午休</t>
   </si>
   <si>
+    <t>回宿舍</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
     <t>玩手机看视频</t>
   </si>
   <si>
+    <t>看视频 又吵架</t>
+  </si>
+  <si>
     <t>13：00-14：00</t>
   </si>
   <si>
+    <t>午休 没睡着</t>
+  </si>
+  <si>
     <t>14：00-14：30</t>
   </si>
   <si>
@@ -316,6 +331,9 @@
     <t>起来去实验室路上</t>
   </si>
   <si>
+    <t>去实验室</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -328,16 +346,28 @@
     <t>复习上午组合数学的内容，自己做课本上的例题，主要是排列组合的一些知识</t>
   </si>
   <si>
+    <t>安车子座包</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
+    <t>拿快递</t>
+  </si>
+  <si>
     <t>每周有意义的事总结：</t>
   </si>
   <si>
     <t>15：30-16：00</t>
   </si>
   <si>
+    <t>跟狗子解决问题</t>
+  </si>
+  <si>
     <t>16：00-16：30</t>
+  </si>
+  <si>
+    <t>学习linux文件系统下各目录的内容以及相关操作</t>
   </si>
   <si>
     <t>16：30-17：00</t>
@@ -375,6 +405,9 @@
     <t>游戏</t>
   </si>
   <si>
+    <t>开会</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -394,6 +427,9 @@
   </si>
   <si>
     <t>20：00-20：30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休息 </t>
   </si>
   <si>
     <t>20：30-21：00</t>
@@ -456,9 +492,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -479,45 +515,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,18 +559,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,6 +591,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -585,9 +606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +615,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,8 +635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,6 +645,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,31 +731,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEF25A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,139 +887,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,8 +1079,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,8 +1103,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,6 +1115,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1093,30 +1159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1136,152 +1178,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,55 +1393,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1485,6 +1533,12 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFFFF"/>
+      <color rgb="00EF25A5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1754,7 +1808,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G27" sqref="G27:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1791,15 +1845,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1820,18 +1874,18 @@
       <c r="F2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1842,18 +1896,18 @@
       <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1865,19 +1919,19 @@
       <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1886,7 +1940,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="11"/>
@@ -1895,13 +1949,13 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1916,18 +1970,18 @@
         <v>25</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" ht="52" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
@@ -1938,20 +1992,20 @@
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="11"/>
       <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
@@ -1964,632 +2018,654 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="47"/>
+      <c r="J17" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="16"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="48"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" ht="52" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="17"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="33" t="s">
+        <v>65</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="48"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G20" s="35"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="48"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="48"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="48"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="48"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="48"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="F25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="38"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="48"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="48"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="19"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="48"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" ht="37" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="48"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" ht="37" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="1"/>
+      <c r="F29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="41"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="48"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="48"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="50"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="48"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="50"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="48"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="50"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="14"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="48"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="48"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="50"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2599,13 +2675,13 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="48"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="20"/>
@@ -2617,13 +2693,13 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="48"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="20"/>
@@ -2635,13 +2711,13 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="48"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="20"/>
@@ -2653,16 +2729,16 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="49"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="40">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2696,6 +2772,10 @@
     <mergeCell ref="F25:F28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G27:G29"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.9.24-2018.9.30.xlsx
+++ b/2018.9.24-2018.9.30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
   <si>
     <t>时间段</t>
   </si>
@@ -189,6 +189,9 @@
     <t>昨天睡很晚，起晚了，心情不是很好，吵架</t>
   </si>
   <si>
+    <t>赖床</t>
+  </si>
+  <si>
     <t>07：30-08：00</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     </r>
   </si>
   <si>
+    <t>骑车到实验室</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
@@ -241,6 +247,9 @@
     <t>起来洗漱</t>
   </si>
   <si>
+    <t>吃早餐 跟王二狗聊天</t>
+  </si>
+  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>车钥匙坏了，去修了一下</t>
   </si>
   <si>
+    <t>看Linux第七章主要学习了文件目录以及文件的操作，包括创建、删除、移动、复制文件以及文件目录;还有查看文件内容的命令</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -304,6 +316,9 @@
     <t>回宿舍</t>
   </si>
   <si>
+    <t>回宿舍休息 休息时间有点长</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
@@ -349,10 +364,16 @@
     <t>安车子座包</t>
   </si>
   <si>
+    <t>走来实验室</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
     <t>拿快递</t>
+  </si>
+  <si>
+    <t>看Linux第七章剩下部分</t>
   </si>
   <si>
     <t>每周有意义的事总结：</t>
@@ -384,6 +405,9 @@
     <t>学习linux第六章，主要学习ls -l显示的信息说明，包括文件的权限以及拥有者，以及如何修改文件的拥有者、组、以及权限等</t>
   </si>
   <si>
+    <t xml:space="preserve"> 没有学习 玩的开心</t>
+  </si>
+  <si>
     <t>17：00-17：30</t>
   </si>
   <si>
@@ -478,6 +502,9 @@
   </si>
   <si>
     <t>晚睡</t>
+  </si>
+  <si>
+    <t>睡觉</t>
   </si>
   <si>
     <t xml:space="preserve">备注：
@@ -492,10 +519,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -515,9 +542,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,25 +564,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,16 +617,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,68 +663,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,31 +764,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,151 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,8 +1112,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,46 +1151,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,16 +1182,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,152 +1211,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,6 +1426,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,46 +1444,22 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,7 +1820,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1845,15 +1857,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1877,795 +1889,817 @@
       <c r="G2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>19</v>
+      <c r="F4" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="27" t="s">
-        <v>21</v>
+      <c r="E5" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="G6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" ht="52" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="26"/>
       <c r="F7" s="11"/>
       <c r="G7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="G8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="H10" s="12"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H15" s="14"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="49"/>
+      <c r="J17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="16"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="G18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="50"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" ht="52" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="17"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="1"/>
+      <c r="G19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="50"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="43"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="50"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="43"/>
     </row>
     <row r="21" ht="87" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="36"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="50"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="H22" s="34"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="50"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="43"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="34"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="50"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="50"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="50"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="50"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="19"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="G27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="34"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="50"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" ht="37" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="50"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" ht="37" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="50"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="43"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="50"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="50"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="43"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="H32" s="34"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="50"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="43"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="14"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="H33" s="34"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="50"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="50"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2675,13 +2709,13 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="50"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="20"/>
@@ -2693,13 +2727,13 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="50"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="20"/>
@@ -2711,13 +2745,13 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="50"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="20"/>
@@ -2729,16 +2763,16 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="51"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="44">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2776,6 +2810,10 @@
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H33"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>
